--- a/results/GLMM_MCMC preliminary model results.xlsx
+++ b/results/GLMM_MCMC preliminary model results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Oilcontent_Longevity/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{E55923DF-2660-47EC-9A24-09779A22701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5D390A3-FE7F-40B5-A56B-B08DA49EE36B}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="8_{E55923DF-2660-47EC-9A24-09779A22701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C61921-35D6-4930-A493-29AC7BB2DD37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11212625-AC36-40BF-893F-C754684BCA76}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11212625-AC36-40BF-893F-C754684BCA76}"/>
   </bookViews>
   <sheets>
     <sheet name="GLMM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="104">
   <si>
     <t>Response variable</t>
   </si>
@@ -261,9 +261,6 @@
     <t>T50 ~ LPERoil + (1| familia)</t>
   </si>
   <si>
-    <t xml:space="preserve">GOOD </t>
-  </si>
-  <si>
     <t>Model convergence problem; non-positive-definite Hessian matrix. See vignette('troubleshooting')</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>Term</t>
   </si>
   <si>
-    <t xml:space="preserve"> NA/NaN function evaluation</t>
-  </si>
-  <si>
     <t>Lratio  ~ GDD * community  + (1| familia)</t>
   </si>
   <si>
@@ -352,6 +346,9 @@
   </si>
   <si>
     <t>FDD:communityTemperate</t>
+  </si>
+  <si>
+    <t>GOOD *</t>
   </si>
 </sst>
 </file>
@@ -720,13 +717,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,24 +733,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,54 +749,86 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,56 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,12 +846,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,6 +873,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1222,10 +1196,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E555267D-CAF9-4C20-A130-6FA7918589A5}">
-  <dimension ref="A1:L59"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L23" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,62 +1218,60 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="113.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="81"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="2">
         <v>-0.22156999999999999</v>
       </c>
       <c r="G2" s="1">
@@ -1314,55 +1289,53 @@
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="62" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="34">
         <v>-0.1167</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="35">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="35">
         <v>-2.1859999999999999</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="35">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="2">
         <v>-0.35770000000000002</v>
       </c>
       <c r="G4" s="1">
@@ -1378,19 +1351,18 @@
       <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="35" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="2">
         <v>-5.5019999999999999E-2</v>
       </c>
       <c r="G5" s="1">
@@ -1406,55 +1378,53 @@
       <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="34">
         <v>-5.8540000000000002E-2</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="35">
         <v>3.431E-2</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="35">
         <v>-1.706</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="35">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="35" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="2">
         <v>-3.1350000000000003E-2</v>
       </c>
       <c r="G7" s="1">
@@ -1472,55 +1442,53 @@
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="34">
         <v>-1.1782999999999999</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="37">
         <v>0.27939999999999998</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="37">
         <v>-4.2169999999999996</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="38">
         <v>2.48E-5</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="35" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>-7.2749999999999995E-2</v>
       </c>
       <c r="G9" s="1">
@@ -1529,29 +1497,28 @@
       <c r="H9" s="1">
         <v>-4.5410000000000004</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="31">
         <v>5.6099999999999997E-6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="56" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1">
@@ -1569,22 +1536,21 @@
       <c r="J10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="35" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>-0.49619999999999997</v>
       </c>
       <c r="G11" s="1">
@@ -1599,26 +1565,25 @@
       <c r="J11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="56" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>-2.4113000000000002</v>
       </c>
       <c r="G12" s="1">
@@ -1633,22 +1598,21 @@
       <c r="J12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="35" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>-2.0279999999999999E-2</v>
       </c>
       <c r="G13" s="1">
@@ -1661,340 +1625,323 @@
         <v>0.81799999999999995</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="56" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="34">
         <v>-15.48</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="35">
         <v>6.94</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="35">
         <v>-2.23</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="35">
         <v>2.5760000000000002E-2</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="35" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>6.7919999999999994E-2</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="1">
         <v>0.62870999999999999</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="1">
         <v>0.108</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="1">
         <v>0.91400000000000003</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="39">
         <v>17.28</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="33">
         <v>24.31</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="33">
         <v>0.71099999999999997</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="33">
         <v>0.47720000000000001</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="55" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.1137</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.629</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="48" t="s">
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14.73</v>
+      </c>
+      <c r="G18" s="30">
+        <v>9.4090000000000007</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9.9250000000000005E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.056</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="39">
+        <v>104.37</v>
+      </c>
+      <c r="G20" s="33">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1.54</v>
+      </c>
+      <c r="I20" s="33">
+        <v>0.124</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3">
-        <v>0.1137</v>
-      </c>
-      <c r="G17" s="48">
-        <v>0.23549999999999999</v>
-      </c>
-      <c r="H17" s="48">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I17" s="48">
-        <v>0.629</v>
-      </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48" t="s">
+      <c r="B22" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="39">
+        <v>-0.1925</v>
+      </c>
+      <c r="G22" s="33">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H22" s="33">
+        <v>-0.752</v>
+      </c>
+      <c r="I22" s="33">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="55"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="56" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-0.15049999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1673</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.89900000000000002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="B24" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3">
-        <v>14.73</v>
-      </c>
-      <c r="G18" s="48">
-        <v>9.4090000000000007</v>
-      </c>
-      <c r="H18" s="48">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="I18" s="48">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3">
-        <v>9.9250000000000005E-2</v>
-      </c>
-      <c r="G19" s="35">
-        <v>9.4E-2</v>
-      </c>
-      <c r="H19" s="35">
-        <v>1.056</v>
-      </c>
-      <c r="I19" s="35">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="68">
-        <v>104.37</v>
-      </c>
-      <c r="G20" s="62">
-        <v>67.790000000000006</v>
-      </c>
-      <c r="H20" s="62">
-        <v>1.54</v>
-      </c>
-      <c r="I20" s="62">
-        <v>0.124</v>
-      </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.68959999999999999</v>
-      </c>
-      <c r="G21" s="35">
-        <v>0.65720000000000001</v>
-      </c>
-      <c r="H21" s="35">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="I21" s="35">
-        <v>0.29409999999999997</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="68">
-        <v>-0.1925</v>
-      </c>
-      <c r="G22" s="62">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="H22" s="62">
-        <v>-0.752</v>
-      </c>
-      <c r="I22" s="62">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-0.15049999999999999</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0.1673</v>
-      </c>
-      <c r="H23" s="35">
-        <v>-0.89900000000000002</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="29">
+      <c r="E24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="2">
         <v>-1.2453000000000001</v>
       </c>
       <c r="G24" s="1">
@@ -2012,19 +1959,18 @@
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="35" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="29">
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="2">
         <v>-0.18603</v>
       </c>
       <c r="G25" s="1">
@@ -2042,55 +1988,53 @@
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="63">
+      <c r="E26" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="34">
         <v>-0.19051000000000001</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="35">
         <v>8.3949999999999997E-2</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="35">
         <v>-2.2690000000000001</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="35">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="29">
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="2">
         <v>-0.10131999999999999</v>
       </c>
       <c r="G27" s="1">
@@ -2108,128 +2052,123 @@
       <c r="K27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="33">
         <v>0.23725769999999999</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="33">
         <v>1.3471660999999999</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="33">
         <v>0.17599999999999999</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="33">
         <v>0.86</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="69" t="s">
+      <c r="J28" s="33"/>
+      <c r="K28" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="68" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="33">
+        <v>9.4309999999999999E-4</v>
+      </c>
+      <c r="G29" s="33">
+        <v>7.0419999999999999E-4</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1.339</v>
+      </c>
+      <c r="I29" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1.1261657</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1.5722506999999999</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="I30" s="33">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="70">
-        <v>9.4309999999999999E-4</v>
-      </c>
-      <c r="G29" s="70">
-        <v>7.0419999999999999E-4</v>
-      </c>
-      <c r="H29" s="70">
-        <v>1.339</v>
-      </c>
-      <c r="I29" s="70">
-        <v>0.18</v>
-      </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="70">
-        <v>1.1261657</v>
-      </c>
-      <c r="G30" s="70">
-        <v>1.5722506999999999</v>
-      </c>
-      <c r="H30" s="70">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="I30" s="70">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="70">
+      <c r="F31" s="33">
         <v>-1.154E-4</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="33">
         <v>1.0853E-3</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="33">
         <v>-0.106</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="33">
         <v>0.91500000000000004</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="2" t="s">
+      <c r="J31" s="33"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="31">
         <v>-0.5827</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="31">
         <v>0.89490000000000003</v>
       </c>
       <c r="H32" s="1">
@@ -2239,25 +2178,22 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="55" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="49">
+      <c r="F33" s="31">
         <v>6.4769999999999997E-4</v>
       </c>
-      <c r="G33" s="49">
+      <c r="G33" s="31">
         <v>4.683E-4</v>
       </c>
       <c r="H33" s="1">
@@ -2267,21 +2203,20 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="49">
+      <c r="K33" s="60"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="31">
         <v>0.66159999999999997</v>
       </c>
-      <c r="G34" s="49">
+      <c r="G34" s="31">
         <v>1.089</v>
       </c>
       <c r="H34" s="1">
@@ -2291,21 +2226,20 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="49">
+      <c r="K34" s="60"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="31">
         <v>1.7059999999999999E-5</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="31">
         <v>7.7820000000000005E-4</v>
       </c>
       <c r="H35" s="1">
@@ -2315,659 +2249,676 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="K35" s="60"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.3949263999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.3719789</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.9690000000000001E-4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.942E-4</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.12619900000000001</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="60"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F38" s="1">
+        <v>-0.1943926</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.43323089999999997</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.65364500000000003</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="60"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5.8069999999999997E-4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2.987E-4</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.944</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5.1845000000000002E-2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="60"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="33">
+        <v>0.3531453</v>
+      </c>
+      <c r="G40" s="33">
+        <v>0.2092454</v>
+      </c>
+      <c r="H40" s="33">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="I40" s="33">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="33">
+        <v>1.6430000000000001E-4</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1.094E-4</v>
+      </c>
+      <c r="H41" s="33">
+        <v>1.502</v>
+      </c>
+      <c r="I41" s="33">
+        <v>0.1331</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="59"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="33">
+        <v>-0.10603659999999999</v>
+      </c>
+      <c r="G42" s="33">
+        <v>0.24556749999999999</v>
+      </c>
+      <c r="H42" s="33">
+        <v>-0.432</v>
+      </c>
+      <c r="I42" s="33">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="59"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="40">
+        <v>3.1090000000000002E-4</v>
+      </c>
+      <c r="G43" s="40">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H43" s="40">
+        <v>1.829</v>
+      </c>
+      <c r="I43" s="40">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="59"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="35">
-        <v>1.3949263999999999</v>
-      </c>
-      <c r="G36" s="35">
-        <v>0.3719789</v>
-      </c>
-      <c r="H36" s="35">
-        <v>3.75</v>
-      </c>
-      <c r="I36" s="35">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="J36" s="35" t="s">
+      <c r="F44" s="1">
+        <v>2.3813599999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.28119</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8.4689999999999994</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="74" t="s">
+      <c r="K44" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="35">
-        <v>2.9690000000000001E-4</v>
-      </c>
-      <c r="G37" s="35">
-        <v>1.942E-4</v>
-      </c>
-      <c r="H37" s="35">
-        <v>1.5289999999999999</v>
-      </c>
-      <c r="I37" s="35">
-        <v>0.12619900000000001</v>
-      </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="35">
-        <v>-0.1943926</v>
-      </c>
-      <c r="G38" s="35">
-        <v>0.43323089999999997</v>
-      </c>
-      <c r="H38" s="35">
-        <v>-0.44900000000000001</v>
-      </c>
-      <c r="I38" s="35">
-        <v>0.65364500000000003</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="35">
-        <v>5.8069999999999997E-4</v>
-      </c>
-      <c r="G39" s="35">
-        <v>2.987E-4</v>
-      </c>
-      <c r="H39" s="35">
-        <v>1.944</v>
-      </c>
-      <c r="I39" s="35">
-        <v>5.1845000000000002E-2</v>
-      </c>
-      <c r="J39" s="35" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-2.162E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>-1.9410000000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="69" t="s">
+      <c r="K45" s="60"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.13925999999999999</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.38701999999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="60"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.392E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.036</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.3004</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="60"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E48" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="70">
-        <v>0.3531453</v>
-      </c>
-      <c r="G40" s="70">
-        <v>0.2092454</v>
-      </c>
-      <c r="H40" s="70">
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="I40" s="70">
-        <v>9.1499999999999998E-2</v>
-      </c>
-      <c r="J40" s="70" t="s">
+      <c r="F48" s="41">
+        <v>0.86034600000000006</v>
+      </c>
+      <c r="G48" s="41">
+        <v>0.17119799999999999</v>
+      </c>
+      <c r="H48" s="33">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="I48" s="41">
+        <v>5.0200000000000002E-7</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="42">
+        <v>-1.3202999999999999E-2</v>
+      </c>
+      <c r="G49" s="42">
+        <v>7.7629999999999999E-3</v>
+      </c>
+      <c r="H49" s="40">
+        <v>-1.7010000000000001</v>
+      </c>
+      <c r="I49" s="40">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J49" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="69" t="s">
+      <c r="K49" s="59"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="41">
+        <v>7.9124E-2</v>
+      </c>
+      <c r="G50" s="41">
+        <v>0.27433299999999999</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I50" s="33">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="59"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="41">
+        <v>8.9269999999999992E-3</v>
+      </c>
+      <c r="G51" s="41">
+        <v>9.4389999999999995E-3</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I51" s="33">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J51" s="33"/>
+      <c r="K51" s="59"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="33">
+        <v>2.0725449999999999</v>
+      </c>
+      <c r="G52" s="33">
+        <v>9.6735000000000002E-2</v>
+      </c>
+      <c r="H52" s="33">
+        <v>21.425000000000001</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="70">
-        <v>1.6430000000000001E-4</v>
-      </c>
-      <c r="G41" s="70">
-        <v>1.094E-4</v>
-      </c>
-      <c r="H41" s="70">
-        <v>1.502</v>
-      </c>
-      <c r="I41" s="70">
-        <v>0.1331</v>
-      </c>
-      <c r="J41" s="70"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="70">
-        <v>-0.10603659999999999</v>
-      </c>
-      <c r="G42" s="70">
-        <v>0.24556749999999999</v>
-      </c>
-      <c r="H42" s="70">
-        <v>-0.432</v>
-      </c>
-      <c r="I42" s="70">
-        <v>0.66590000000000005</v>
-      </c>
-      <c r="J42" s="70"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="71">
-        <v>3.1090000000000002E-4</v>
-      </c>
-      <c r="G43" s="71">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="H43" s="71">
-        <v>1.829</v>
-      </c>
-      <c r="I43" s="71">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="J43" s="71" t="s">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="40">
+        <v>-6.7819999999999998E-3</v>
+      </c>
+      <c r="G53" s="40">
+        <v>3.934E-3</v>
+      </c>
+      <c r="H53" s="40">
+        <v>-1.724</v>
+      </c>
+      <c r="I53" s="40">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="J53" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="K53" s="59"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="33">
+        <v>7.4317999999999995E-2</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0.13730700000000001</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="I54" s="33">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="J54" s="33"/>
+      <c r="K54" s="59"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="33">
+        <v>5.5360000000000001E-3</v>
+      </c>
+      <c r="G55" s="33">
+        <v>4.7450000000000001E-3</v>
+      </c>
+      <c r="H55" s="33">
+        <v>1.167</v>
+      </c>
+      <c r="I55" s="33">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="59"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.72581200000000001</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5.1672000000000003E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>14.047000000000001</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="35">
-        <v>2.3813599999999999</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0.28119</v>
-      </c>
-      <c r="H44" s="35">
-        <v>8.4689999999999994</v>
-      </c>
-      <c r="I44" s="35" t="s">
+      <c r="J56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="1">
+        <v>-3.637E-3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.1649999999999998E-3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-1.68</v>
+      </c>
+      <c r="I57" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="60"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.1716000000000001E-2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7.5809000000000001E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="60"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J44" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K44" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" s="35">
-        <v>-2.162E-2</v>
-      </c>
-      <c r="G45" s="35">
-        <v>1.1140000000000001E-2</v>
-      </c>
-      <c r="H45" s="35">
-        <v>-1.9410000000000001</v>
-      </c>
-      <c r="I45" s="35">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="35">
-        <v>0.13925999999999999</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0.38701999999999998</v>
-      </c>
-      <c r="H46" s="35">
-        <v>0.36</v>
-      </c>
-      <c r="I46" s="35">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="35">
-        <v>1.392E-2</v>
-      </c>
-      <c r="G47" s="35">
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="H47" s="35">
-        <v>1.036</v>
-      </c>
-      <c r="I47" s="35">
-        <v>0.3004</v>
-      </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="72">
-        <v>0.86034600000000006</v>
-      </c>
-      <c r="G48" s="72">
-        <v>0.17119799999999999</v>
-      </c>
-      <c r="H48" s="70">
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="I48" s="72">
-        <v>5.0200000000000002E-7</v>
-      </c>
-      <c r="J48" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K48" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="73">
-        <v>-1.3202999999999999E-2</v>
-      </c>
-      <c r="G49" s="73">
-        <v>7.7629999999999999E-3</v>
-      </c>
-      <c r="H49" s="71">
-        <v>-1.7010000000000001</v>
-      </c>
-      <c r="I49" s="71">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="J49" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="72">
-        <v>7.9124E-2</v>
-      </c>
-      <c r="G50" s="72">
-        <v>0.27433299999999999</v>
-      </c>
-      <c r="H50" s="70">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="I50" s="70">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51" s="72">
-        <v>8.9269999999999992E-3</v>
-      </c>
-      <c r="G51" s="72">
-        <v>9.4389999999999995E-3</v>
-      </c>
-      <c r="H51" s="70">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="I51" s="70">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="70">
-        <v>2.0725449999999999</v>
-      </c>
-      <c r="G52" s="70">
-        <v>9.6735000000000002E-2</v>
-      </c>
-      <c r="H52" s="70">
-        <v>21.425000000000001</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="K52" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="71">
-        <v>-6.7819999999999998E-3</v>
-      </c>
-      <c r="G53" s="71">
-        <v>3.934E-3</v>
-      </c>
-      <c r="H53" s="71">
-        <v>-1.724</v>
-      </c>
-      <c r="I53" s="71">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="69"/>
-      <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" s="70">
-        <v>7.4317999999999995E-2</v>
-      </c>
-      <c r="G54" s="70">
-        <v>0.13730700000000001</v>
-      </c>
-      <c r="H54" s="70">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="I54" s="70">
-        <v>0.58830000000000005</v>
-      </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" s="70">
-        <v>5.5360000000000001E-3</v>
-      </c>
-      <c r="G55" s="70">
-        <v>4.7450000000000001E-3</v>
-      </c>
-      <c r="H55" s="70">
-        <v>1.167</v>
-      </c>
-      <c r="I55" s="70">
-        <v>0.24329999999999999</v>
-      </c>
-      <c r="J55" s="70"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="35">
-        <v>0.72581200000000001</v>
-      </c>
-      <c r="G56" s="35">
-        <v>5.1672000000000003E-2</v>
-      </c>
-      <c r="H56" s="35">
-        <v>14.047000000000001</v>
-      </c>
-      <c r="I56" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K56" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="35">
-        <v>-3.637E-3</v>
-      </c>
-      <c r="G57" s="35">
-        <v>2.1649999999999998E-3</v>
-      </c>
-      <c r="H57" s="35">
-        <v>-1.68</v>
-      </c>
-      <c r="I57" s="35">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="74"/>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="35">
-        <v>3.1716000000000001E-2</v>
-      </c>
-      <c r="G58" s="35">
-        <v>7.5809000000000001E-2</v>
-      </c>
-      <c r="H58" s="35">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="I58" s="35">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="J58" s="35"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="35">
+      <c r="F59" s="1">
         <v>3.1080000000000001E-3</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="1">
         <v>2.6099999999999999E-3</v>
       </c>
-      <c r="H59" s="35">
+      <c r="H59" s="1">
         <v>1.19</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="1">
         <v>0.23400000000000001</v>
       </c>
-      <c r="J59" s="35"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="60"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A22:A23"/>
@@ -2984,56 +2935,26 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD99B8C6-7DC7-40A5-A25E-67ABA866469A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
@@ -3050,85 +2971,85 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="86" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:13" s="50" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="44">
         <v>-0.23053999999999999</v>
       </c>
-      <c r="H2" s="75">
+      <c r="H2" s="43">
         <v>-0.44519999999999998</v>
       </c>
-      <c r="I2" s="75">
+      <c r="I2" s="43">
         <v>-1.3390000000000001E-2</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="43">
         <v>9000</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="43">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="45" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -3136,10 +3057,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,7 +3073,7 @@
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="2">
         <v>-0.51627999999999996</v>
       </c>
       <c r="H3" s="1">
@@ -3167,7 +3088,7 @@
       <c r="K3" s="1">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -3175,38 +3096,38 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="25">
         <v>-7.1379999999999999E-2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>-0.15357999999999999</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>1.23E-2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>9000</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -3214,82 +3135,82 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>1.23</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>-0.11650000000000001</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>2.6149</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>9000</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>8.3111000000000004E-2</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>-1.8672</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-2.0948000000000002</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>-1.6277999999999999</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>9000</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="44"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="1">
@@ -3307,113 +3228,113 @@
       <c r="K7" s="1">
         <v>0.51333300000000004</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="44"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="18" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <v>-0.46210000000000001</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="14">
         <v>-0.70399999999999996</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="14">
         <v>-0.2175</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="14">
         <v>9000</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="14">
         <v>2.22E-4</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1.2141</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>-0.15101000000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>2.4121299999999999</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>9000</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>-1.8137099999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>-2.0343200000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>-1.57752</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>9000</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="44"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="1">
@@ -3431,113 +3352,113 @@
       <c r="K11" s="1">
         <v>0.45440000000000003</v>
       </c>
-      <c r="L11" s="25"/>
-      <c r="M11" s="44"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="16">
         <v>-0.20862</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="16">
         <v>-0.43252000000000002</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="16">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="16">
         <v>9418</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="16">
         <v>6.93E-2</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="13"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>1.1964399999999999</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>-0.15489</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>2.5504099999999998</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>9000</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>-1.8164499999999999</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>-2.0466600000000001</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>-1.5849500000000001</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>9522</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="44"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="1">
@@ -3555,408 +3476,408 @@
       <c r="K15" s="1">
         <v>0.6462</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="44"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="16">
         <v>-0.21021999999999999</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="16">
         <v>-0.42624000000000001</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="16">
         <v>1.8689999999999998E-2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="16">
         <v>9000</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="16">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="8">
         <v>9.2804399999999995E-2</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="8">
         <v>6.4696799999999999E-2</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="8">
         <v>0.1191628</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="8">
         <v>9000</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>-1.08561E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>-1.95525E-2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>-1.8952000000000001E-3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>9000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="44"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="1">
         <v>7.2150000000000003E-4</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="1">
         <v>-1.7355599999999999E-2</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="1">
         <v>2.0121699999999999E-2</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="1">
         <v>9176</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="1">
         <v>0.93579999999999997</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="44"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="37" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="9">
         <v>-2.8235999999999999E-3</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="9">
         <v>-1.35657E-2</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="9">
         <v>7.8130000000000005E-3</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="9">
         <v>9000</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="9">
         <v>0.59360000000000002</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="13"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="8">
         <v>9.2893000000000003E-2</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="8">
         <v>6.6022999999999998E-2</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="8">
         <v>0.117525</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="8">
         <v>8704</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>-1.0765E-2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>-1.9428999999999998E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>-1.8810000000000001E-3</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>9000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="44"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="1">
         <v>-7.2170000000000003E-3</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="1">
         <v>-2.4267E-2</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="1">
         <v>1.0042000000000001E-2</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="1">
         <v>9000</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="1">
         <v>0.38440000000000002</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="44"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="37" t="s">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="9">
         <v>-3.1610000000000002E-3</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="9">
         <v>-1.2427000000000001E-2</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="9">
         <v>5.9430000000000004E-3</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="9">
         <v>9300</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="9">
         <v>0.48930000000000001</v>
       </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="8">
         <v>9.3257999999999994E-2</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="8">
         <v>6.7089999999999997E-2</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="8">
         <v>0.117685</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="8">
         <v>9000</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="51" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4" t="s">
+      <c r="A26" s="66"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>-1.059E-2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>-1.9168999999999999E-2</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>-1.877E-3</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>9000</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>1.78E-2</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="1">
         <v>-7.4660000000000004E-3</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="1">
         <v>-2.4799000000000002E-2</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="1">
         <v>9.7509999999999993E-3</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="1">
         <v>9000</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="1">
         <v>0.35560000000000003</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="44"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="52"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="45" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="28">
         <v>-3.6340000000000001E-3</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="28">
         <v>-1.2651000000000001E-2</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="28">
         <v>6.2859999999999999E-3</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="28">
         <v>9000</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="28">
         <v>0.4471</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="44"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="51" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3965,31 +3886,31 @@
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>-7.16</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>-12.397</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>-1.8879999999999999</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>9000</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="4">
         <v>1.67E-2</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3997,15 +3918,15 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="1" t="s">
         <v>62</v>
       </c>
@@ -4030,19 +3951,19 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="35" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>-3.7090000000000001</v>
       </c>
       <c r="H31" s="1">
@@ -4063,19 +3984,19 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="35" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>-3.0619999999999998</v>
       </c>
       <c r="H32" s="1">
@@ -4096,21 +4017,21 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="2">
         <v>20.83</v>
       </c>
       <c r="H33" s="1">
@@ -4131,34 +4052,34 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>20.004799999999999</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>-2.7673999999999999</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>43.889400000000002</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>8625</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -4166,19 +4087,19 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="2">
         <v>130.86000000000001</v>
       </c>
       <c r="H35" s="1">
@@ -4202,16 +4123,16 @@
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="29" t="s">
-        <v>88</v>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G36" s="1">
         <v>-0.16750000000000001</v>
@@ -4237,14 +4158,14 @@
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="61"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G37" s="1">
         <v>-1.0860000000000001</v>
@@ -4270,14 +4191,14 @@
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="29" t="s">
-        <v>88</v>
       </c>
       <c r="G38" s="1">
         <v>-0.18498000000000001</v>
@@ -4300,22 +4221,22 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="1">
@@ -4334,16 +4255,16 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="60"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3" t="s">
-        <v>94</v>
+      <c r="A40" s="60"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G40" s="1">
         <v>7.9710000000000002E-4</v>
@@ -4361,16 +4282,16 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="60"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3" t="s">
-        <v>95</v>
+      <c r="A41" s="60"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G41" s="1">
         <v>0.55480119999999999</v>
@@ -4388,16 +4309,16 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="60"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3" t="s">
-        <v>96</v>
+      <c r="A42" s="60"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G42" s="1">
         <v>3.2620000000000001E-4</v>
@@ -4415,23 +4336,23 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="2"/>
+      <c r="M42" s="60"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="52"/>
+      <c r="C43" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="1">
@@ -4452,16 +4373,16 @@
       <c r="L43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="60"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3" t="s">
-        <v>94</v>
+      <c r="A44" s="60"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G44" s="1">
         <v>2.3039999999999999E-4</v>
@@ -4479,16 +4400,16 @@
         <v>0.45379999999999998</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="2"/>
+      <c r="M44" s="60"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
-        <v>95</v>
+      <c r="A45" s="60"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G45" s="1">
         <v>-0.46433289999999999</v>
@@ -4506,16 +4427,16 @@
         <v>0.504</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="2"/>
+      <c r="M45" s="60"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3" t="s">
-        <v>96</v>
+      <c r="A46" s="60"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G46" s="1">
         <v>7.9270000000000002E-4</v>
@@ -4533,25 +4454,25 @@
         <v>0.1087</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="2"/>
+      <c r="M46" s="60"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G47" s="1">
@@ -4572,16 +4493,16 @@
       <c r="L47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M47" s="41"/>
+      <c r="M47" s="57"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3" t="s">
-        <v>103</v>
+      <c r="A48" s="60"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G48" s="1">
         <v>-1.5748000000000002E-2</v>
@@ -4599,16 +4520,16 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="42"/>
+      <c r="M48" s="61"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3" t="s">
-        <v>95</v>
+      <c r="A49" s="60"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G49" s="1">
         <v>0.28672900000000001</v>
@@ -4626,16 +4547,16 @@
         <v>0.55600000000000005</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="42"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3" t="s">
-        <v>104</v>
+      <c r="A50" s="60"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G50" s="1">
         <v>7.143E-3</v>
@@ -4653,23 +4574,23 @@
         <v>0.65</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="43"/>
+      <c r="M50" s="58"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="1">
@@ -4690,16 +4611,16 @@
       <c r="L51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M51" s="41"/>
+      <c r="M51" s="57"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3" t="s">
-        <v>103</v>
+      <c r="A52" s="60"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G52" s="1">
         <v>-5.5409999999999999E-3</v>
@@ -4717,16 +4638,16 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="42"/>
+      <c r="M52" s="61"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3" t="s">
-        <v>95</v>
+      <c r="A53" s="60"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G53" s="1">
         <v>9.017E-2</v>
@@ -4744,16 +4665,16 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="42"/>
+      <c r="M53" s="61"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3" t="s">
-        <v>104</v>
+      <c r="A54" s="60"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G54" s="1">
         <v>4.7140000000000003E-3</v>
@@ -4771,10 +4692,54 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="43"/>
+      <c r="M54" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E29:E38"/>
+    <mergeCell ref="D29:D38"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="M51:M54"/>
     <mergeCell ref="M47:M50"/>
     <mergeCell ref="A5:A16"/>
@@ -4791,52 +4756,9 @@
     <mergeCell ref="E47:E50"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E29:E38"/>
-    <mergeCell ref="D29:D38"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
